--- a/output.xlsx
+++ b/output.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
   <si>
     <t>category_id</t>
   </si>
@@ -32,40 +32,49 @@
     <t>касови апарати</t>
   </si>
   <si>
-    <t>daisy</t>
-  </si>
-  <si>
-    <t>ков</t>
+    <t>Daisy</t>
+  </si>
+  <si>
+    <t>Eltrade</t>
+  </si>
+  <si>
+    <t>Datecs</t>
   </si>
   <si>
     <t>видео наблюдение</t>
   </si>
   <si>
-    <t>eltrade</t>
-  </si>
-  <si>
-    <t>видео наблюдение2222</t>
-  </si>
-  <si>
-    <t>касови апарати5</t>
-  </si>
-  <si>
-    <t>daisy4</t>
-  </si>
-  <si>
-    <t>вов</t>
-  </si>
-  <si>
-    <t>test1</t>
-  </si>
-  <si>
-    <t>eltrade56</t>
-  </si>
-  <si>
-    <t>касови апарати4444</t>
-  </si>
-  <si>
-    <t>epdal</t>
+    <t>Kамери</t>
+  </si>
+  <si>
+    <t>DVR Устройства</t>
+  </si>
+  <si>
+    <t>фискални принтери</t>
+  </si>
+  <si>
+    <t>сензори</t>
+  </si>
+  <si>
+    <t>консумативи</t>
+  </si>
+  <si>
+    <t>Касови ролки</t>
+  </si>
+  <si>
+    <t>аксесоари</t>
+  </si>
+  <si>
+    <t>Калъфи</t>
+  </si>
+  <si>
+    <t>Екран</t>
+  </si>
+  <si>
+    <t>POS терминали</t>
+  </si>
+  <si>
+    <t>Ролки</t>
   </si>
 </sst>
 </file>
@@ -405,7 +414,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,7 +458,7 @@
         <v>4</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -463,10 +472,10 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -474,13 +483,13 @@
         <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -488,195 +497,153 @@
         <v>36</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C14">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C16">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17">
-        <v>40</v>
-      </c>
-      <c r="B17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19">
-        <v>41</v>
-      </c>
-      <c r="B19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19">
-        <v>28</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
       </c>
     </row>
   </sheetData>
